--- a/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
+++ b/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C046A47-65E7-409A-801F-A61D3BFFEE2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5B04D-E6F0-417A-B91B-F029EF8784F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>ДолжностьРукОТПредпр</t>
   </si>
   <si>
-    <t>ДолжностныеИнструкции</t>
-  </si>
-  <si>
     <t>год</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>ФормаОбученияИП</t>
+  </si>
+  <si>
+    <t>ТипПрактикиРП</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +552,9 @@
     <col min="37" max="37" width="26.5703125" customWidth="1"/>
     <col min="38" max="38" width="26.7109375" customWidth="1"/>
     <col min="39" max="39" width="26.42578125" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -586,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -606,80 +609,80 @@
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">

--- a/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
+++ b/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5B04D-E6F0-417A-B91B-F029EF8784F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6345C11-B837-4AB1-A915-821FB8C4CA98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ФИО</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>ТипПрактикиРП</t>
+  </si>
+  <si>
+    <t>Фамилия И.О. зав кафедрыРП</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,12 +533,12 @@
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
     <col min="14" max="14" width="26.5703125" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
     <col min="17" max="17" width="29.42578125" customWidth="1"/>
     <col min="18" max="18" width="26.140625" customWidth="1"/>
     <col min="19" max="19" width="27" customWidth="1"/>
     <col min="20" max="21" width="26.28515625" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" customWidth="1"/>
     <col min="23" max="23" width="27.28515625" customWidth="1"/>
     <col min="24" max="24" width="27.140625" customWidth="1"/>
     <col min="25" max="25" width="27.28515625" customWidth="1"/>
@@ -551,13 +554,14 @@
     <col min="36" max="36" width="33.28515625" customWidth="1"/>
     <col min="37" max="37" width="26.5703125" customWidth="1"/>
     <col min="38" max="38" width="26.7109375" customWidth="1"/>
-    <col min="39" max="39" width="26.42578125" customWidth="1"/>
+    <col min="39" max="39" width="31.7109375" customWidth="1"/>
     <col min="40" max="40" width="27.85546875" customWidth="1"/>
     <col min="41" max="41" width="27.28515625" customWidth="1"/>
     <col min="42" max="42" width="27.5703125" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,91 +605,94 @@
         <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>

--- a/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
+++ b/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E945B-A3D5-4775-BF94-C8CBDFD4808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4C5C4-3652-419F-92A0-6D5D7B279D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ФИО</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Фамилия И.О. зав кафедрыРП</t>
+  </si>
+  <si>
+    <t>ВидПрактикаРП</t>
+  </si>
+  <si>
+    <t>Дата1ЭтапаПрактики</t>
+  </si>
+  <si>
+    <t>Дата2ЭтапаПрактики</t>
+  </si>
+  <si>
+    <t>Дата3ЭтапаПрактики</t>
   </si>
 </sst>
 </file>
@@ -514,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB72" sqref="AB72"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +551,7 @@
     <col min="19" max="19" width="27" customWidth="1"/>
     <col min="20" max="21" width="26.28515625" customWidth="1"/>
     <col min="22" max="22" width="31.85546875" customWidth="1"/>
-    <col min="23" max="23" width="27.28515625" customWidth="1"/>
+    <col min="23" max="23" width="31" customWidth="1"/>
     <col min="24" max="24" width="27.140625" customWidth="1"/>
     <col min="25" max="25" width="27.28515625" customWidth="1"/>
     <col min="26" max="26" width="26.42578125" customWidth="1"/>
@@ -558,7 +570,10 @@
     <col min="40" max="40" width="27.85546875" customWidth="1"/>
     <col min="41" max="41" width="27.28515625" customWidth="1"/>
     <col min="42" max="42" width="27.5703125" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="43" max="44" width="28.140625" customWidth="1"/>
+    <col min="45" max="45" width="27.28515625" customWidth="1"/>
+    <col min="46" max="46" width="27" customWidth="1"/>
+    <col min="47" max="47" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:148" x14ac:dyDescent="0.25">
@@ -613,82 +628,94 @@
       <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
+++ b/table_templates/Реклама, лингвистика, журналистика, ГМУ шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\staffhomes\musinar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4C5C4-3652-419F-92A0-6D5D7B279D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32CA0-1AD7-4077-ACC0-B8123ABE2F0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
     <col min="23" max="23" width="31" customWidth="1"/>
     <col min="24" max="24" width="27.140625" customWidth="1"/>
     <col min="25" max="25" width="27.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
+    <col min="26" max="26" width="32.28515625" customWidth="1"/>
     <col min="27" max="27" width="26.28515625" customWidth="1"/>
     <col min="28" max="28" width="26.7109375" customWidth="1"/>
     <col min="29" max="29" width="27" customWidth="1"/>
@@ -593,58 +593,58 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>17</v>
@@ -652,71 +652,71 @@
       <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>29</v>
+      <c r="AN1" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="3" t="s">
-        <v>38</v>
+      <c r="AR1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:148" x14ac:dyDescent="0.25">
@@ -725,23 +725,15 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -755,7 +747,6 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
@@ -877,11 +868,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -909,9 +897,6 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
@@ -1037,8 +1022,6 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1050,23 +1033,6 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -1943,8 +1909,6 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
